--- a/4.SUBMIT_PLACE/4.3 KHOI_NGUYEN/TEST/BSS_TestReport_Total_V1.0.xlsx
+++ b/4.SUBMIT_PLACE/4.3 KHOI_NGUYEN/TEST/BSS_TestReport_Total_V1.0.xlsx
@@ -654,14 +654,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -711,61 +758,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3580,13 +3580,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3822,6 +3822,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7044-4536-B260-3E1322A9AED7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3841,6 +3846,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7044-4536-B260-3E1322A9AED7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3860,6 +3870,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7044-4536-B260-3E1322A9AED7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3879,6 +3894,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7044-4536-B260-3E1322A9AED7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3898,6 +3918,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7044-4536-B260-3E1322A9AED7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3917,6 +3942,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7044-4536-B260-3E1322A9AED7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -8250,72 +8280,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38"/>
-    <col min="2" max="2" width="13.28515625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="13.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8331,8 +8361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,14 +8372,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -8382,7 +8412,7 @@
       <c r="D4" s="6">
         <v>9</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="44">
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
@@ -8400,7 +8430,7 @@
       <c r="D5" s="6">
         <v>9</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8416,7 +8446,7 @@
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8432,7 +8462,7 @@
       <c r="D7" s="6">
         <v>9</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8448,7 +8478,7 @@
       <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8464,7 +8494,7 @@
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8480,56 +8510,56 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -8544,7 +8574,7 @@
       <c r="D17" s="6">
         <v>9</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="44">
         <v>2</v>
       </c>
       <c r="F17" s="2"/>
@@ -8562,7 +8592,7 @@
       <c r="D18" s="6">
         <v>9</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8578,7 +8608,7 @@
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8594,7 +8624,7 @@
       <c r="D20" s="6">
         <v>9</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8610,7 +8640,7 @@
       <c r="D21" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8626,7 +8656,7 @@
       <c r="D22" s="6">
         <v>0</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8642,56 +8672,56 @@
       <c r="D23" s="6">
         <v>0</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -8706,7 +8736,7 @@
       <c r="D30" s="6">
         <v>9</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="44">
         <v>3</v>
       </c>
       <c r="F30" s="2"/>
@@ -8724,7 +8754,7 @@
       <c r="D31" s="6">
         <v>9</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8740,7 +8770,7 @@
       <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8756,7 +8786,7 @@
       <c r="D33" s="6">
         <v>9</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8772,7 +8802,7 @@
       <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8788,7 +8818,7 @@
       <c r="D35" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8804,56 +8834,56 @@
       <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -8868,7 +8898,7 @@
       <c r="D43" s="6">
         <v>9</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="44">
         <v>4</v>
       </c>
       <c r="F43" s="2"/>
@@ -8886,7 +8916,7 @@
       <c r="D44" s="6">
         <v>9</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8902,7 +8932,7 @@
       <c r="D45" s="6">
         <v>6</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8918,7 +8948,7 @@
       <c r="D46" s="6">
         <v>2</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8934,7 +8964,7 @@
       <c r="D47" s="6">
         <v>1</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8950,7 +8980,7 @@
       <c r="D48" s="6">
         <v>2</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8966,16 +8996,16 @@
       <c r="D49" s="6">
         <v>6</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
@@ -9008,7 +9038,7 @@
       <c r="D64" s="1">
         <v>2</v>
       </c>
-      <c r="E64" s="33"/>
+      <c r="E64" s="50"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9018,7 +9048,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="33"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9028,7 +9058,7 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="33"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9038,7 +9068,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="33"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9048,7 +9078,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="33"/>
+      <c r="E68" s="50"/>
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9058,7 +9088,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="33"/>
+      <c r="E69" s="50"/>
       <c r="F69" s="10"/>
     </row>
   </sheetData>
@@ -9084,8 +9114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9122,8 +9152,8 @@
         <v>27</v>
       </c>
       <c r="F4" s="11">
-        <f>SUM(Summary!B32,Summary!C32,Summary!D32)</f>
-        <v>73</v>
+        <f>SUM(Summary!B45,Summary!C45,Summary!D45)</f>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9137,8 +9167,8 @@
         <v>28</v>
       </c>
       <c r="F5" s="11">
-        <f>SUM(Summary!B33,Summary!C33,Summary!D33)</f>
-        <v>38</v>
+        <f>SUM(Summary!B46,Summary!C46,Summary!D46)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9152,8 +9182,8 @@
         <v>29</v>
       </c>
       <c r="F6" s="11">
-        <f>SUM(Summary!B34,Summary!C34,Summary!D34)</f>
-        <v>94</v>
+        <f>SUM(Summary!B47,Summary!C47,Summary!D47)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9324,28 +9354,28 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
@@ -9420,10 +9450,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="18">
         <f>SUM(B39:B46)</f>
         <v>209</v>
       </c>
